--- a/GL120_TestData_ReverseJournals_21B.xlsx
+++ b/GL120_TestData_ReverseJournals_21B.xlsx
@@ -1,203 +1,54 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF-Selenium_Python-master\UIAF-Selenium_Python-master\venv\Selenium\21B_Results_and_Scripts\GNB GL\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDBE8FC-6663-464F-95F0-DBDFC21BDFC2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-110" yWindow="-110"/>
   </bookViews>
   <sheets>
-    <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
-    <sheet name="Output_Value" sheetId="2" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Value" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output_Value" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="0" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>Raj Divekar</author>
-  </authors>
-  <commentList>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
-      <text>
-        <r>
-          <rPr>
-            <sz val="11"/>
-            <color theme="1"/>
-            <rFont val="Calibri"/>
-            <family val="2"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t>Raj Divekar:
-Journal Name should exist and should not be reversed</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>JournalNameR</t>
-  </si>
-  <si>
-    <t>Batchname</t>
-  </si>
-  <si>
-    <t>ReversalPeriod</t>
-  </si>
-  <si>
-    <t>RevJournalName</t>
-  </si>
-  <si>
-    <t>SavedSearch</t>
-  </si>
-  <si>
-    <t>All Journals</t>
-  </si>
-  <si>
-    <t>ProcessIDRJ</t>
-  </si>
-  <si>
-    <t>1359376</t>
-  </si>
-  <si>
-    <t>LowWait</t>
-  </si>
-  <si>
-    <t>MediumWait</t>
-  </si>
-  <si>
-    <t>HighWait</t>
-  </si>
-  <si>
-    <t>HighestWait</t>
-  </si>
-  <si>
-    <t>LowExplicitWait</t>
-  </si>
-  <si>
-    <t>MediumExplicitWait</t>
-  </si>
-  <si>
-    <t>LongExplicitWait</t>
-  </si>
-  <si>
-    <t>HighestExplicitWait</t>
-  </si>
-  <si>
-    <t>2021-04</t>
-  </si>
-  <si>
-    <t>15021990-20210406</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color theme="10"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF1D1C1D"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
   </fonts>
-  <fills count="7">
+  <fills count="3">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFF0000"/>
+        <fgColor theme="4" tint="0.7999816888943144"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -221,78 +72,66 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
+      <left/>
       <right style="thin">
         <color indexed="64"/>
       </right>
-      <top/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+  <cellStyleXfs count="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="8">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="1">
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
 </styleSheet>
 </file>
 
@@ -592,158 +431,200 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:L8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L13" sqref="L13"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="8.08984375" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="8.453125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.90625" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" style="3" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="17.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.54296875" style="3" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="16.81640625" style="3" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="9.7265625" style="3" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="13.36328125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="14.90625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="11.26953125" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="33.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="30.81640625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="10.90625" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col collapsed="1" customWidth="1" max="1" min="1" style="2" width="25.36328125"/>
+    <col customWidth="1" max="2" min="2" style="2" width="25.36328125"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="3" min="3" style="2" width="13.36328125"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="11.26953125"/>
+    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="8.1796875"/>
+    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="11.81640625"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="8.54296875"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="11.08984375"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="14.1796875"/>
+    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="17.90625"/>
+    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="14.7265625"/>
+    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="17.1796875"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="16" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>12</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>13</v>
-      </c>
-      <c r="D1" s="14" t="s">
-        <v>14</v>
-      </c>
-      <c r="E1" s="11" t="s">
+    <row r="1">
+      <c r="A1" s="7" t="inlineStr">
+        <is>
+          <t>JournalNameR</t>
+        </is>
+      </c>
+      <c r="B1" s="7" t="inlineStr">
+        <is>
+          <t>JournalPeriodDate</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>ReversalPeriod</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>SavedSearch</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>LowWait</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>MediumWait</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>HighWait</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>HighestWait</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>LowExplicitWait</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>MediumExplicitWait</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>LongExplicitWait</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>HighestExplicitWait</t>
+        </is>
+      </c>
+    </row>
+    <row customFormat="1" r="2" s="3">
+      <c r="A2" s="3" t="inlineStr">
+        <is>
+          <t>15021990-20210319-SLL-04</t>
+        </is>
+      </c>
+      <c r="B2" s="3" t="inlineStr">
+        <is>
+          <t>2021-03</t>
+        </is>
+      </c>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2021-05</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>All Journals</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="n">
+        <v>2</v>
+      </c>
+      <c r="F2" s="3" t="n">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="n">
+        <v>10</v>
+      </c>
+      <c r="H2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="I2" s="3" t="n">
         <v>15</v>
       </c>
-      <c r="F1" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>17</v>
-      </c>
-      <c r="H1" s="14" t="s">
-        <v>18</v>
-      </c>
-      <c r="I1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="J1" s="15" t="s">
-        <v>4</v>
-      </c>
-      <c r="K1" s="9" t="s">
-        <v>5</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>6</v>
-      </c>
-      <c r="M1" s="9" t="s">
-        <v>7</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="P1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>2</v>
+      <c r="J2" s="3" t="n">
+        <v>30</v>
+      </c>
+      <c r="K2" s="3" t="n">
+        <v>60</v>
+      </c>
+      <c r="L2" s="3" t="n">
+        <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="A2" s="6">
-        <v>2</v>
-      </c>
-      <c r="B2" s="6">
-        <v>5</v>
-      </c>
-      <c r="C2" s="6">
-        <v>10</v>
-      </c>
-      <c r="D2" s="6">
-        <v>30</v>
-      </c>
-      <c r="E2" s="6">
-        <v>15</v>
-      </c>
-      <c r="F2" s="6">
-        <v>30</v>
-      </c>
-      <c r="G2" s="6">
-        <v>60</v>
-      </c>
-      <c r="H2" s="6">
-        <v>120</v>
-      </c>
-      <c r="I2" s="10" t="s">
-        <v>20</v>
-      </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="5" t="s">
-        <v>19</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="O2" s="4"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+    <row customHeight="1" ht="29" r="6" s="2">
+      <c r="A6" s="5" t="inlineStr">
+        <is>
+          <t>Journal Name should exist and should not be reversed wrt Journal name JournalPeriodDate should be used</t>
+        </is>
+      </c>
+      <c r="B6" s="6" t="n"/>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
-      <c r="I3" s="7"/>
+    <row r="8">
+      <c r="A8" s="7" t="inlineStr">
+        <is>
+          <t>Source should not be AutoCopy</t>
+        </is>
+      </c>
+      <c r="B8" s="6" t="n"/>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <mergeCells count="2">
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="A8:B8"/>
+  </mergeCells>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
-  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.26953125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" style="2" width="16.26953125"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A1" t="s">
-        <v>9</v>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>ProcessIDRJ</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
-      <c r="A2" t="s">
-        <v>10</v>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>761188</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
--- a/GL120_TestData_ReverseJournals_21B.xlsx
+++ b/GL120_TestData_ReverseJournals_21B.xlsx
@@ -1,54 +1,130 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\UIAF_Selenium_IGA-master\venv\Selenium\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32116514-89D7-4F38-9A9D-097BAD023697}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="10560" windowWidth="19420" xWindow="-110" yWindow="-110"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Input_Value" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Output_Value" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="Input_Value" sheetId="1" r:id="rId1"/>
+    <sheet name="Output_Value" sheetId="2" r:id="rId2"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+  <si>
+    <t>JournalNameR</t>
+  </si>
+  <si>
+    <t>JournalPeriodDate</t>
+  </si>
+  <si>
+    <t>ReversalPeriod</t>
+  </si>
+  <si>
+    <t>SavedSearch</t>
+  </si>
+  <si>
+    <t>LowWait</t>
+  </si>
+  <si>
+    <t>MediumWait</t>
+  </si>
+  <si>
+    <t>HighWait</t>
+  </si>
+  <si>
+    <t>HighestWait</t>
+  </si>
+  <si>
+    <t>LowExplicitWait</t>
+  </si>
+  <si>
+    <t>MediumExplicitWait</t>
+  </si>
+  <si>
+    <t>LongExplicitWait</t>
+  </si>
+  <si>
+    <t>HighestExplicitWait</t>
+  </si>
+  <si>
+    <t>15021990-20210319-SLL-04</t>
+  </si>
+  <si>
+    <t>2021-03</t>
+  </si>
+  <si>
+    <t>2021-05</t>
+  </si>
+  <si>
+    <t>All Journals</t>
+  </si>
+  <si>
+    <t>Journal Name should exist and should not be reversed wrt Journal name JournalPeriodDate should be used</t>
+  </si>
+  <si>
+    <t>Source should not be AutoCopy</t>
+  </si>
+  <si>
+    <t>ProcessIDRJ</t>
+  </si>
+  <si>
+    <t>761188</t>
+  </si>
+  <si>
+    <t>BatchStatus</t>
+  </si>
+  <si>
+    <t>Posted</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <b val="1"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="3">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.7999816888943144"/>
+        <fgColor theme="4" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="5">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -84,54 +160,74 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="49" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="2" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <dxfs count="3">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+  </dxfs>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -431,200 +527,159 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:L8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col collapsed="1" customWidth="1" max="1" min="1" style="2" width="25.36328125"/>
-    <col customWidth="1" max="2" min="2" style="2" width="25.36328125"/>
-    <col bestFit="1" collapsed="1" customWidth="1" max="3" min="3" style="2" width="13.36328125"/>
-    <col bestFit="1" customWidth="1" max="4" min="4" style="2" width="11.26953125"/>
-    <col bestFit="1" customWidth="1" max="5" min="5" style="2" width="8.1796875"/>
-    <col bestFit="1" customWidth="1" max="6" min="6" style="2" width="11.81640625"/>
-    <col bestFit="1" customWidth="1" max="7" min="7" style="2" width="8.54296875"/>
-    <col bestFit="1" customWidth="1" max="8" min="8" style="2" width="11.08984375"/>
-    <col bestFit="1" customWidth="1" max="9" min="9" style="2" width="14.1796875"/>
-    <col bestFit="1" customWidth="1" max="10" min="10" style="2" width="17.90625"/>
-    <col bestFit="1" customWidth="1" max="11" min="11" style="2" width="14.7265625"/>
-    <col bestFit="1" customWidth="1" max="12" min="12" style="2" width="17.1796875"/>
+    <col min="1" max="1" width="25.36328125" style="2" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="25.36328125" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.36328125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="13.36328125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="11.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.08984375" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="17.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="17.1796875" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="7" t="inlineStr">
-        <is>
-          <t>JournalNameR</t>
-        </is>
-      </c>
-      <c r="B1" s="7" t="inlineStr">
-        <is>
-          <t>JournalPeriodDate</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>ReversalPeriod</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>SavedSearch</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>LowWait</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>MediumWait</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>HighWait</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>HighestWait</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>LowExplicitWait</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>MediumExplicitWait</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>LongExplicitWait</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>HighestExplicitWait</t>
-        </is>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row customFormat="1" r="2" s="3">
-      <c r="A2" s="3" t="inlineStr">
-        <is>
-          <t>15021990-20210319-SLL-04</t>
-        </is>
-      </c>
-      <c r="B2" s="3" t="inlineStr">
-        <is>
-          <t>2021-03</t>
-        </is>
-      </c>
-      <c r="C2" s="3" t="inlineStr">
-        <is>
-          <t>2021-05</t>
-        </is>
-      </c>
-      <c r="D2" s="3" t="inlineStr">
-        <is>
-          <t>All Journals</t>
-        </is>
-      </c>
-      <c r="E2" s="3" t="n">
+    <row r="2" spans="1:13" s="3" customFormat="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F2" s="3">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="n">
+      <c r="G2" s="3">
         <v>5</v>
       </c>
-      <c r="G2" s="3" t="n">
+      <c r="H2" s="3">
         <v>10</v>
       </c>
-      <c r="H2" s="3" t="n">
+      <c r="I2" s="3">
         <v>30</v>
       </c>
-      <c r="I2" s="3" t="n">
+      <c r="J2" s="3">
         <v>15</v>
       </c>
-      <c r="J2" s="3" t="n">
+      <c r="K2" s="3">
         <v>30</v>
       </c>
-      <c r="K2" s="3" t="n">
+      <c r="L2" s="3">
         <v>60</v>
       </c>
-      <c r="L2" s="3" t="n">
+      <c r="M2" s="3">
         <v>120</v>
       </c>
     </row>
-    <row customHeight="1" ht="29" r="6" s="2">
-      <c r="A6" s="5" t="inlineStr">
-        <is>
-          <t>Journal Name should exist and should not be reversed wrt Journal name JournalPeriodDate should be used</t>
-        </is>
-      </c>
-      <c r="B6" s="6" t="n"/>
+    <row r="6" spans="1:13" ht="29" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="6"/>
     </row>
-    <row r="8">
-      <c r="A8" s="7" t="inlineStr">
-        <is>
-          <t>Source should not be AutoCopy</t>
-        </is>
-      </c>
-      <c r="B8" s="6" t="n"/>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B8" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A8:B8"/>
   </mergeCells>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col bestFit="1" collapsed="1" customWidth="1" max="1" min="1" style="2" width="16.26953125"/>
+    <col min="1" max="1" width="16.26953125" style="2" bestFit="1" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>ProcessIDRJ</t>
-        </is>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>761188</t>
-        </is>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait"/>
 </worksheet>
 </file>